--- a/呉俊鋒_週報_2025年5月分.xlsx
+++ b/呉俊鋒_週報_2025年5月分.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\studyNote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\週報\introduction-to-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE880F0-F67B-473A-9AE0-7870B1FDC942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198E887-F740-438E-8EFB-40A471F46B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -133,11 +133,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・5/13
+　■FD-QシリーズIO-Link取扱説明書には不明なところがあります。</t>
+    <rPh sb="30" eb="32">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・5/13
+　■FD-QシリーズIO-Link取扱説明書には不明なところがあります。
+　　解決策：一応KEYENCE社と問い合わせする。</t>
+    <rPh sb="45" eb="48">
+      <t>カイケツサク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・5/12
 　4D再生の件について、ckptファイルの読込の調査
 　メディモニー社の吉田社長と打合せ
 ・5/13
-　ハードウェア確定調査</t>
+　ハードウェア確定調査
+　　IOLinkマスタと流量センサー（FD-Qシリーズ）の連携
+・5/14
+　ハードウェア確定調査
+　　IOLinkマスタと流量センサー（FD-Qシリーズ）の連携
+　　　問い合わせの返事によって調査し続く
+　　タッチパネルの調査着手
+・5/15
+　ハードウェア確定調査
+　　タッチパネルのマニュアル調査
+　　PLC型番確定
+　　タッチパネル型番確定着手中
+・5/16
+　JP1について
+　　神移さん開催した説明会を呉さんと一緒に参加した
+　ハードウェア確定調査
+　　タッチパネル型番確定、高い製品と安い製品の比較を追加した</t>
     <rPh sb="9" eb="11">
       <t>サイセイ</t>
     </rPh>
@@ -164,6 +209,63 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ウチアワ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>リュウリョウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ヘンジ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="313" eb="314">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3587,7 +3689,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3647,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -3725,7 +3827,9 @@
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -3799,7 +3903,9 @@
       <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>

--- a/呉俊鋒_週報_2025年5月分.xlsx
+++ b/呉俊鋒_週報_2025年5月分.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\週報\introduction-to-github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\studyNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198E887-F740-438E-8EFB-40A471F46B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD2A35-4C5A-4472-8879-688FE75F416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025年5月12日の週" sheetId="6" r:id="rId1"/>
+    <sheet name="2025年5月19日の週" sheetId="7" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Holiday">[1]祝日!$A$2:$B$335</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025年5月12日の週'!$A$1:$K$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2025年5月19日の週'!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -266,6 +268,60 @@
     </rPh>
     <rPh sb="326" eb="328">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今週の進捗状況：ハードウェア確定調査、PLC開発の見積作成
+来週の進捗予定：JP1の勉強、Springフレームワーク復習</t>
+    <rPh sb="14" eb="16">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・5/19～5/21
+　ハードウェア確定調査＆見積作成
+　三菱制PLCや表示器などのハードウェア調査＆見積作成
+・5/22
+　JP1を勉強した
+・5/23
+　Springフレームワーク復習している</t>
+    <rPh sb="29" eb="31">
+      <t>ミツビシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>フクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3688,7 +3744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3991,4 +4047,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E96BD8-A906-472A-9606-21BAA3AFA165}">
+  <dimension ref="B1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="7.8984375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.09765625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B4" s="13"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="2:13" ht="364.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="13"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="2:11" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="14"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:K20"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:K8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:K14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>